--- a/ADC.xlsx
+++ b/ADC.xlsx
@@ -354,7 +354,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,14 +377,14 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>4.8499999999999996</v>
+        <v>4.3068</v>
       </c>
       <c r="B2">
         <v>12.78</v>
       </c>
       <c r="C2">
         <f>B2/3.3*4095/$A$2</f>
-        <v>3269.8594189315841</v>
+        <v>3682.2741204184504</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -393,16 +393,16 @@
       </c>
       <c r="C3">
         <f>B3/3.3*4095/$A$2</f>
-        <v>2814.432989690722</v>
+        <v>3169.406519921984</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <f>B4/3.3*4095/$A$2</f>
-        <v>3121.4620431115277</v>
+        <v>3457.5343853694371</v>
       </c>
     </row>
   </sheetData>
